--- a/Code/Results/Cases/Case_4_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.015589511269347</v>
+        <v>1.052867787106645</v>
       </c>
       <c r="D2">
-        <v>1.028084589205011</v>
+        <v>1.051307780880689</v>
       </c>
       <c r="E2">
-        <v>1.023663553051984</v>
+        <v>1.056548272993526</v>
       </c>
       <c r="F2">
-        <v>1.018695505918179</v>
+        <v>1.059078839405825</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047075070246765</v>
+        <v>1.045883159265253</v>
       </c>
       <c r="J2">
-        <v>1.037313734880832</v>
+        <v>1.057888129132677</v>
       </c>
       <c r="K2">
-        <v>1.039166049919456</v>
+        <v>1.054059644323757</v>
       </c>
       <c r="L2">
-        <v>1.034802774182871</v>
+        <v>1.059285681782752</v>
       </c>
       <c r="M2">
-        <v>1.029900384927617</v>
+        <v>1.061809323692522</v>
       </c>
       <c r="N2">
-        <v>1.038786839365947</v>
+        <v>1.05939045161751</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022561167185447</v>
+        <v>1.054238729137631</v>
       </c>
       <c r="D3">
-        <v>1.033330455197167</v>
+        <v>1.052346632113406</v>
       </c>
       <c r="E3">
-        <v>1.03013468502874</v>
+        <v>1.057869784064461</v>
       </c>
       <c r="F3">
-        <v>1.026143925895311</v>
+        <v>1.060618637801931</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049762747367352</v>
+        <v>1.046335032841949</v>
       </c>
       <c r="J3">
-        <v>1.042455132449783</v>
+        <v>1.058907678995128</v>
       </c>
       <c r="K3">
-        <v>1.043553914307351</v>
+        <v>1.054910533833024</v>
       </c>
       <c r="L3">
-        <v>1.04039597636631</v>
+        <v>1.060419561517191</v>
       </c>
       <c r="M3">
-        <v>1.036452871153937</v>
+        <v>1.063161444746181</v>
       </c>
       <c r="N3">
-        <v>1.043935538309136</v>
+        <v>1.06041144935771</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026941564510374</v>
+        <v>1.05512460841034</v>
       </c>
       <c r="D4">
-        <v>1.036629028699587</v>
+        <v>1.053017711234352</v>
       </c>
       <c r="E4">
-        <v>1.034205807722242</v>
+        <v>1.058724027507972</v>
       </c>
       <c r="F4">
-        <v>1.030828394366853</v>
+        <v>1.061614131565259</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051440184872994</v>
+        <v>1.046625549534432</v>
       </c>
       <c r="J4">
-        <v>1.04568033794199</v>
+        <v>1.059565723540369</v>
       </c>
       <c r="K4">
-        <v>1.046304593779675</v>
+        <v>1.055459388201459</v>
       </c>
       <c r="L4">
-        <v>1.043908208894118</v>
+        <v>1.061151851910797</v>
       </c>
       <c r="M4">
-        <v>1.040568457957276</v>
+        <v>1.064035001035596</v>
       </c>
       <c r="N4">
-        <v>1.047165323963078</v>
+        <v>1.061070428401684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028753458503012</v>
+        <v>1.055496747503756</v>
       </c>
       <c r="D5">
-        <v>1.037993952686427</v>
+        <v>1.053299566481769</v>
       </c>
       <c r="E5">
-        <v>1.035890967706725</v>
+        <v>1.059082949719965</v>
       </c>
       <c r="F5">
-        <v>1.032767164327632</v>
+        <v>1.062032438143967</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052131280378262</v>
+        <v>1.046747235716046</v>
       </c>
       <c r="J5">
-        <v>1.047013102476209</v>
+        <v>1.059841969157209</v>
       </c>
       <c r="K5">
-        <v>1.047440807546892</v>
+        <v>1.055689716172576</v>
       </c>
       <c r="L5">
-        <v>1.045360451230606</v>
+        <v>1.061459374634704</v>
       </c>
       <c r="M5">
-        <v>1.042270469481838</v>
+        <v>1.064401925266407</v>
       </c>
       <c r="N5">
-        <v>1.048499981175807</v>
+        <v>1.061347066318985</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029055992385242</v>
+        <v>1.055559214770333</v>
       </c>
       <c r="D6">
-        <v>1.038221883078039</v>
+        <v>1.053346875694152</v>
       </c>
       <c r="E6">
-        <v>1.03617240927137</v>
+        <v>1.059143202647344</v>
       </c>
       <c r="F6">
-        <v>1.033090948074555</v>
+        <v>1.062102662180752</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052246509913967</v>
+        <v>1.046767641205399</v>
       </c>
       <c r="J6">
-        <v>1.047235557804421</v>
+        <v>1.059888328889722</v>
       </c>
       <c r="K6">
-        <v>1.047630428389079</v>
+        <v>1.05572836528136</v>
       </c>
       <c r="L6">
-        <v>1.045602900083601</v>
+        <v>1.061510989701333</v>
       </c>
       <c r="M6">
-        <v>1.042554635708153</v>
+        <v>1.064463514933828</v>
       </c>
       <c r="N6">
-        <v>1.0487227524161</v>
+        <v>1.061393491887636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026965889420777</v>
+        <v>1.055129582062299</v>
       </c>
       <c r="D7">
-        <v>1.036647351069614</v>
+        <v>1.053021478440569</v>
       </c>
       <c r="E7">
-        <v>1.03422842656214</v>
+        <v>1.058728824230884</v>
       </c>
       <c r="F7">
-        <v>1.030854418223703</v>
+        <v>1.06161972177199</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051449473885112</v>
+        <v>1.046627177265199</v>
       </c>
       <c r="J7">
-        <v>1.045698235682852</v>
+        <v>1.059569416300019</v>
       </c>
       <c r="K7">
-        <v>1.046319853883125</v>
+        <v>1.055462467463625</v>
       </c>
       <c r="L7">
-        <v>1.0439277076646</v>
+        <v>1.06115596234425</v>
       </c>
       <c r="M7">
-        <v>1.04059130905716</v>
+        <v>1.064039905140606</v>
       </c>
       <c r="N7">
-        <v>1.047183247120786</v>
+        <v>1.061074126405476</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017973734072519</v>
+        <v>1.053331357679377</v>
       </c>
       <c r="D8">
-        <v>1.029878023551592</v>
+        <v>1.05165910095111</v>
       </c>
       <c r="E8">
-        <v>1.025875466592172</v>
+        <v>1.056995065331307</v>
       </c>
       <c r="F8">
-        <v>1.021241835810569</v>
+        <v>1.059599403270089</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04799656968897</v>
+        <v>1.046036261655293</v>
       </c>
       <c r="J8">
-        <v>1.039073100059624</v>
+        <v>1.058233039514003</v>
       </c>
       <c r="K8">
-        <v>1.040667933456985</v>
+        <v>1.054347566206068</v>
       </c>
       <c r="L8">
-        <v>1.03671598413765</v>
+        <v>1.059669175414082</v>
       </c>
       <c r="M8">
-        <v>1.032141559574409</v>
+        <v>1.062266563754633</v>
       </c>
       <c r="N8">
-        <v>1.040548703045058</v>
+        <v>1.059735851811139</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001044198282686</v>
+        <v>1.050153124404812</v>
       </c>
       <c r="D9">
-        <v>1.01715850759802</v>
+        <v>1.04924963183797</v>
       </c>
       <c r="E9">
-        <v>1.010194589932407</v>
+        <v>1.053933139676605</v>
       </c>
       <c r="F9">
-        <v>1.003179891596721</v>
+        <v>1.056032471024391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041406859756025</v>
+        <v>1.044980536220985</v>
       </c>
       <c r="J9">
-        <v>1.026560137023822</v>
+        <v>1.055865181601936</v>
       </c>
       <c r="K9">
-        <v>1.029979201557406</v>
+        <v>1.052369584882535</v>
       </c>
       <c r="L9">
-        <v>1.023124404372504</v>
+        <v>1.057038305979196</v>
       </c>
       <c r="M9">
-        <v>1.016221587099371</v>
+        <v>1.059131055855479</v>
       </c>
       <c r="N9">
-        <v>1.02801797016649</v>
+        <v>1.05736463126924</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9888987018275955</v>
+        <v>1.048027541124763</v>
       </c>
       <c r="D10">
-        <v>1.008057803137025</v>
+        <v>1.047637194616571</v>
       </c>
       <c r="E10">
-        <v>0.9989804658827373</v>
+        <v>1.051886967625165</v>
       </c>
       <c r="F10">
-        <v>0.9902448215362002</v>
+        <v>1.053649479907797</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036622424417322</v>
+        <v>1.044266871183366</v>
       </c>
       <c r="J10">
-        <v>1.017559799433957</v>
+        <v>1.054277617521316</v>
       </c>
       <c r="K10">
-        <v>1.022283079740992</v>
+        <v>1.051041723700307</v>
       </c>
       <c r="L10">
-        <v>1.013368152764521</v>
+        <v>1.055276747974103</v>
       </c>
       <c r="M10">
-        <v>1.004792471214153</v>
+        <v>1.057033181906251</v>
       </c>
       <c r="N10">
-        <v>1.019004851064894</v>
+        <v>1.055774812665529</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9834018019507346</v>
+        <v>1.047105457492745</v>
       </c>
       <c r="D11">
-        <v>1.00394661695347</v>
+        <v>1.046937489766427</v>
       </c>
       <c r="E11">
-        <v>0.9939147557261572</v>
+        <v>1.050999725170541</v>
       </c>
       <c r="F11">
-        <v>0.9843955955807681</v>
+        <v>1.052616330983343</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034444464618687</v>
+        <v>1.043955481558028</v>
       </c>
       <c r="J11">
-        <v>1.01348176730953</v>
+        <v>1.053587994007704</v>
       </c>
       <c r="K11">
-        <v>1.018794487683409</v>
+        <v>1.050464514246199</v>
       </c>
       <c r="L11">
-        <v>1.008952350563889</v>
+        <v>1.054512098648723</v>
       </c>
       <c r="M11">
-        <v>0.9996179124825346</v>
+        <v>1.056122908666316</v>
       </c>
       <c r="N11">
-        <v>1.014921027667093</v>
+        <v>1.055084209807427</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9813209356365351</v>
+        <v>1.046762693478308</v>
       </c>
       <c r="D12">
-        <v>1.002391647996509</v>
+        <v>1.046677357215547</v>
       </c>
       <c r="E12">
-        <v>0.9919986854920936</v>
+        <v>1.050669972115305</v>
       </c>
       <c r="F12">
-        <v>0.9821820698361066</v>
+        <v>1.052232370376435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033618189242978</v>
+        <v>1.043839459267498</v>
       </c>
       <c r="J12">
-        <v>1.011937418594811</v>
+        <v>1.053331501857442</v>
       </c>
       <c r="K12">
-        <v>1.017473170799951</v>
+        <v>1.05024977275385</v>
       </c>
       <c r="L12">
-        <v>1.0072808004665</v>
+        <v>1.054227785504481</v>
       </c>
       <c r="M12">
-        <v>0.9976587842569192</v>
+        <v>1.055784502947953</v>
       </c>
       <c r="N12">
-        <v>1.01337448580006</v>
+        <v>1.054827353408891</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9817691150862689</v>
+        <v>1.046836229449225</v>
       </c>
       <c r="D13">
-        <v>1.002726495900613</v>
+        <v>1.046733167054408</v>
       </c>
       <c r="E13">
-        <v>0.9924112981992765</v>
+        <v>1.050740714035804</v>
       </c>
       <c r="F13">
-        <v>0.9826587900982247</v>
+        <v>1.052314740550762</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033796233271922</v>
+        <v>1.043864362698658</v>
       </c>
       <c r="J13">
-        <v>1.012270067699653</v>
+        <v>1.053386535548028</v>
       </c>
       <c r="K13">
-        <v>1.017757787276128</v>
+        <v>1.050295850994623</v>
       </c>
       <c r="L13">
-        <v>1.007640816300592</v>
+        <v>1.05428878477451</v>
       </c>
       <c r="M13">
-        <v>0.9980807565223079</v>
+        <v>1.055857105350243</v>
       </c>
       <c r="N13">
-        <v>1.013707607304786</v>
+        <v>1.054882465253631</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9832306148438823</v>
+        <v>1.047077129878696</v>
       </c>
       <c r="D14">
-        <v>1.003818665874934</v>
+        <v>1.046915991866374</v>
       </c>
       <c r="E14">
-        <v>0.9937570934278732</v>
+        <v>1.050972471625316</v>
       </c>
       <c r="F14">
-        <v>0.9842134807156984</v>
+        <v>1.052584596869797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034376525252295</v>
+        <v>1.043945898443774</v>
       </c>
       <c r="J14">
-        <v>1.013354729599143</v>
+        <v>1.053566799155495</v>
       </c>
       <c r="K14">
-        <v>1.018685800120583</v>
+        <v>1.05044677061154</v>
       </c>
       <c r="L14">
-        <v>1.008814834859591</v>
+        <v>1.054488603149074</v>
       </c>
       <c r="M14">
-        <v>0.9994567462264105</v>
+        <v>1.05609494189618</v>
       </c>
       <c r="N14">
-        <v>1.014793809548586</v>
+        <v>1.055062984856097</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.984125808191285</v>
+        <v>1.047225521779239</v>
       </c>
       <c r="D15">
-        <v>1.004487819117171</v>
+        <v>1.047028605525424</v>
       </c>
       <c r="E15">
-        <v>0.9945816255761188</v>
+        <v>1.051115239544269</v>
       </c>
       <c r="F15">
-        <v>0.9851658476657671</v>
+        <v>1.052750837099667</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034731729690808</v>
+        <v>1.043996087749703</v>
       </c>
       <c r="J15">
-        <v>1.014019027557926</v>
+        <v>1.053677820934207</v>
       </c>
       <c r="K15">
-        <v>1.019254135141164</v>
+        <v>1.050539711964019</v>
       </c>
       <c r="L15">
-        <v>1.009533952650766</v>
+        <v>1.054611679473819</v>
       </c>
       <c r="M15">
-        <v>1.000299525671053</v>
+        <v>1.056241442234681</v>
       </c>
       <c r="N15">
-        <v>1.015459050886666</v>
+        <v>1.055174164298469</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9892582266279522</v>
+        <v>1.048088700542333</v>
       </c>
       <c r="D16">
-        <v>1.008326868755663</v>
+        <v>1.047683599564339</v>
       </c>
       <c r="E16">
-        <v>0.9993119981506023</v>
+        <v>1.051945824428081</v>
       </c>
       <c r="F16">
-        <v>0.9906274909608476</v>
+        <v>1.053718018562603</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036764620673087</v>
+        <v>1.044287486979019</v>
       </c>
       <c r="J16">
-        <v>1.017826435598234</v>
+        <v>1.054323338825084</v>
       </c>
       <c r="K16">
-        <v>1.022511148214765</v>
+        <v>1.051079983710697</v>
       </c>
       <c r="L16">
-        <v>1.013656971496075</v>
+        <v>1.055327455094748</v>
       </c>
       <c r="M16">
-        <v>1.005130874165401</v>
+        <v>1.057093553515552</v>
       </c>
       <c r="N16">
-        <v>1.019271865883108</v>
+        <v>1.055820598898793</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9924117561291677</v>
+        <v>1.048629691918417</v>
       </c>
       <c r="D17">
-        <v>1.01068783212705</v>
+        <v>1.04809405300613</v>
       </c>
       <c r="E17">
-        <v>1.002221097326203</v>
+        <v>1.052466493166995</v>
       </c>
       <c r="F17">
-        <v>0.9939845936089468</v>
+        <v>1.054324352730323</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038010468238842</v>
+        <v>1.04446963824579</v>
       </c>
       <c r="J17">
-        <v>1.020164695257357</v>
+        <v>1.054727663157948</v>
       </c>
       <c r="K17">
-        <v>1.024511024588802</v>
+        <v>1.05141828013013</v>
       </c>
       <c r="L17">
-        <v>1.016190294416007</v>
+        <v>1.055775934256188</v>
       </c>
       <c r="M17">
-        <v>1.008098923218104</v>
+        <v>1.057627551973973</v>
       </c>
       <c r="N17">
-        <v>1.021613446139148</v>
+        <v>1.056225497418586</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.994228457537882</v>
+        <v>1.048945080245639</v>
       </c>
       <c r="D18">
-        <v>1.012048656993364</v>
+        <v>1.048333318262514</v>
       </c>
       <c r="E18">
-        <v>1.003897885669901</v>
+        <v>1.052770071537661</v>
       </c>
       <c r="F18">
-        <v>0.995919045493311</v>
+        <v>1.054677892498401</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038726994102975</v>
+        <v>1.044575655698956</v>
       </c>
       <c r="J18">
-        <v>1.021511294074988</v>
+        <v>1.054963286991314</v>
       </c>
       <c r="K18">
-        <v>1.025662606127149</v>
+        <v>1.051615387171634</v>
       </c>
       <c r="L18">
-        <v>1.017649674029632</v>
+        <v>1.056037343242229</v>
       </c>
       <c r="M18">
-        <v>1.009808595314143</v>
+        <v>1.057938843343358</v>
       </c>
       <c r="N18">
-        <v>1.022961957281558</v>
+        <v>1.056461455864822</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9948441503404492</v>
+        <v>1.049052592110279</v>
       </c>
       <c r="D19">
-        <v>1.012509965349058</v>
+        <v>1.048414877017644</v>
       </c>
       <c r="E19">
-        <v>1.004466310316799</v>
+        <v>1.052873563928854</v>
       </c>
       <c r="F19">
-        <v>0.9965747264284009</v>
+        <v>1.054798419516155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038969625682515</v>
+        <v>1.044611766264305</v>
       </c>
       <c r="J19">
-        <v>1.021967589020147</v>
+        <v>1.055043592872667</v>
       </c>
       <c r="K19">
-        <v>1.026052794197267</v>
+        <v>1.051682559145101</v>
       </c>
       <c r="L19">
-        <v>1.018144260085989</v>
+        <v>1.056126446359134</v>
       </c>
       <c r="M19">
-        <v>1.010387985186719</v>
+        <v>1.058044955191279</v>
       </c>
       <c r="N19">
-        <v>1.023418900217877</v>
+        <v>1.056541875789738</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9920757829271828</v>
+        <v>1.048571665553249</v>
       </c>
       <c r="D20">
-        <v>1.010436223070434</v>
+        <v>1.048050030297025</v>
       </c>
       <c r="E20">
-        <v>1.001911071155382</v>
+        <v>1.052410642681322</v>
       </c>
       <c r="F20">
-        <v>0.9936268828691764</v>
+        <v>1.054259311770371</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037877860066347</v>
+        <v>1.044450118771993</v>
       </c>
       <c r="J20">
-        <v>1.019915624796217</v>
+        <v>1.05468430491967</v>
       </c>
       <c r="K20">
-        <v>1.024298013202048</v>
+        <v>1.051382006450997</v>
       </c>
       <c r="L20">
-        <v>1.015920399712321</v>
+        <v>1.055727835482094</v>
       </c>
       <c r="M20">
-        <v>1.007782729261524</v>
+        <v>1.057570277758355</v>
       </c>
       <c r="N20">
-        <v>1.021364021969385</v>
+        <v>1.056182077606637</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9828013472207086</v>
+        <v>1.047006197969611</v>
       </c>
       <c r="D21">
-        <v>1.003497838671574</v>
+        <v>1.046862160928056</v>
       </c>
       <c r="E21">
-        <v>0.9933617661529566</v>
+        <v>1.050904230131462</v>
       </c>
       <c r="F21">
-        <v>0.9837568220611332</v>
+        <v>1.052505136581399</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034206132286672</v>
+        <v>1.043921898111075</v>
       </c>
       <c r="J21">
-        <v>1.01303616140375</v>
+        <v>1.053513725312153</v>
       </c>
       <c r="K21">
-        <v>1.018413245066075</v>
+        <v>1.050402337970592</v>
       </c>
       <c r="L21">
-        <v>1.008470002802143</v>
+        <v>1.054429769621436</v>
       </c>
       <c r="M21">
-        <v>0.9990526022282642</v>
+        <v>1.056024913017211</v>
       </c>
       <c r="N21">
-        <v>1.014474788949815</v>
+        <v>1.055009835641809</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.976742089495552</v>
+        <v>1.046020412292895</v>
       </c>
       <c r="D22">
-        <v>0.9989726844169808</v>
+        <v>1.046113961563152</v>
       </c>
       <c r="E22">
-        <v>0.9877854985926365</v>
+        <v>1.049955976666059</v>
       </c>
       <c r="F22">
-        <v>0.9773125807692046</v>
+        <v>1.051401037931785</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031796788989267</v>
+        <v>1.043587710412182</v>
       </c>
       <c r="J22">
-        <v>1.008538158884333</v>
+        <v>1.052775793133155</v>
       </c>
       <c r="K22">
-        <v>1.01456452013748</v>
+        <v>1.049784411141785</v>
       </c>
       <c r="L22">
-        <v>1.003602873671887</v>
+        <v>1.053611953141277</v>
       </c>
       <c r="M22">
-        <v>0.9933472876029859</v>
+        <v>1.055051601083099</v>
       </c>
       <c r="N22">
-        <v>1.009970398750893</v>
+        <v>1.054270855514475</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9799770673652082</v>
+        <v>1.046543141758715</v>
       </c>
       <c r="D23">
-        <v>1.001387814868803</v>
+        <v>1.046510724551212</v>
       </c>
       <c r="E23">
-        <v>0.9907617038017139</v>
+        <v>1.05045877117742</v>
       </c>
       <c r="F23">
-        <v>0.9807527230675724</v>
+        <v>1.0519864559897</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033084066336088</v>
+        <v>1.043765067123148</v>
       </c>
       <c r="J23">
-        <v>1.010939888444716</v>
+        <v>1.053167170756925</v>
       </c>
       <c r="K23">
-        <v>1.016619653588259</v>
+        <v>1.050112174005571</v>
       </c>
       <c r="L23">
-        <v>1.006201308922078</v>
+        <v>1.054045653338899</v>
       </c>
       <c r="M23">
-        <v>0.9963934563443366</v>
+        <v>1.055567733815294</v>
       </c>
       <c r="N23">
-        <v>1.012375539042734</v>
+        <v>1.054662788939362</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9922276646543858</v>
+        <v>1.048597885672452</v>
       </c>
       <c r="D24">
-        <v>1.010549964530457</v>
+        <v>1.048069922713004</v>
       </c>
       <c r="E24">
-        <v>1.002051220351796</v>
+        <v>1.052435879478717</v>
       </c>
       <c r="F24">
-        <v>0.9937885898979822</v>
+        <v>1.054288701365192</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037937811278582</v>
+        <v>1.04445893948723</v>
       </c>
       <c r="J24">
-        <v>1.020028222202072</v>
+        <v>1.05470389729501</v>
       </c>
       <c r="K24">
-        <v>1.024394309811534</v>
+        <v>1.051398397630911</v>
       </c>
       <c r="L24">
-        <v>1.0160424097635</v>
+        <v>1.055749569807602</v>
       </c>
       <c r="M24">
-        <v>1.007925670033119</v>
+        <v>1.057596158069446</v>
       </c>
       <c r="N24">
-        <v>1.021476779276472</v>
+        <v>1.056201697805397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005561892882204</v>
+        <v>1.050975939629518</v>
       </c>
       <c r="D25">
-        <v>1.020549142584789</v>
+        <v>1.049873600808072</v>
       </c>
       <c r="E25">
-        <v>1.014373386055454</v>
+        <v>1.054725560169048</v>
       </c>
       <c r="F25">
-        <v>1.007995772846941</v>
+        <v>1.056955465596627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043175299298277</v>
+        <v>1.045255192887139</v>
       </c>
       <c r="J25">
-        <v>1.029903516069347</v>
+        <v>1.056478895571912</v>
       </c>
       <c r="K25">
-        <v>1.032836619951493</v>
+        <v>1.052882547840169</v>
       </c>
       <c r="L25">
-        <v>1.026752597256294</v>
+        <v>1.057719775971471</v>
       </c>
       <c r="M25">
-        <v>1.020471219947586</v>
+        <v>1.05994296053391</v>
       </c>
       <c r="N25">
-        <v>1.03136609719375</v>
+        <v>1.057979216783447</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_141/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_141/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.052867787106645</v>
+        <v>1.015589511269343</v>
       </c>
       <c r="D2">
-        <v>1.051307780880689</v>
+        <v>1.028084589205007</v>
       </c>
       <c r="E2">
-        <v>1.056548272993526</v>
+        <v>1.02366355305198</v>
       </c>
       <c r="F2">
-        <v>1.059078839405825</v>
+        <v>1.018695505918176</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045883159265253</v>
+        <v>1.047075070246763</v>
       </c>
       <c r="J2">
-        <v>1.057888129132677</v>
+        <v>1.037313734880829</v>
       </c>
       <c r="K2">
-        <v>1.054059644323757</v>
+        <v>1.039166049919452</v>
       </c>
       <c r="L2">
-        <v>1.059285681782752</v>
+        <v>1.034802774182868</v>
       </c>
       <c r="M2">
-        <v>1.061809323692522</v>
+        <v>1.029900384927614</v>
       </c>
       <c r="N2">
-        <v>1.05939045161751</v>
+        <v>1.038786839365943</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054238729137631</v>
+        <v>1.022561167185448</v>
       </c>
       <c r="D3">
-        <v>1.052346632113406</v>
+        <v>1.033330455197169</v>
       </c>
       <c r="E3">
-        <v>1.057869784064461</v>
+        <v>1.030134685028742</v>
       </c>
       <c r="F3">
-        <v>1.060618637801931</v>
+        <v>1.026143925895313</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046335032841949</v>
+        <v>1.049762747367353</v>
       </c>
       <c r="J3">
-        <v>1.058907678995128</v>
+        <v>1.042455132449784</v>
       </c>
       <c r="K3">
-        <v>1.054910533833024</v>
+        <v>1.043553914307352</v>
       </c>
       <c r="L3">
-        <v>1.060419561517191</v>
+        <v>1.040395976366312</v>
       </c>
       <c r="M3">
-        <v>1.063161444746181</v>
+        <v>1.036452871153939</v>
       </c>
       <c r="N3">
-        <v>1.06041144935771</v>
+        <v>1.043935538309138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05512460841034</v>
+        <v>1.026941564510374</v>
       </c>
       <c r="D4">
-        <v>1.053017711234352</v>
+        <v>1.036629028699587</v>
       </c>
       <c r="E4">
-        <v>1.058724027507972</v>
+        <v>1.034205807722242</v>
       </c>
       <c r="F4">
-        <v>1.061614131565259</v>
+        <v>1.030828394366853</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046625549534432</v>
+        <v>1.051440184872994</v>
       </c>
       <c r="J4">
-        <v>1.059565723540369</v>
+        <v>1.04568033794199</v>
       </c>
       <c r="K4">
-        <v>1.055459388201459</v>
+        <v>1.046304593779676</v>
       </c>
       <c r="L4">
-        <v>1.061151851910797</v>
+        <v>1.043908208894119</v>
       </c>
       <c r="M4">
-        <v>1.064035001035596</v>
+        <v>1.040568457957276</v>
       </c>
       <c r="N4">
-        <v>1.061070428401684</v>
+        <v>1.047165323963078</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.055496747503756</v>
+        <v>1.02875345850301</v>
       </c>
       <c r="D5">
-        <v>1.053299566481769</v>
+        <v>1.037993952686425</v>
       </c>
       <c r="E5">
-        <v>1.059082949719965</v>
+        <v>1.035890967706723</v>
       </c>
       <c r="F5">
-        <v>1.062032438143967</v>
+        <v>1.032767164327631</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046747235716046</v>
+        <v>1.052131280378261</v>
       </c>
       <c r="J5">
-        <v>1.059841969157209</v>
+        <v>1.047013102476207</v>
       </c>
       <c r="K5">
-        <v>1.055689716172576</v>
+        <v>1.04744080754689</v>
       </c>
       <c r="L5">
-        <v>1.061459374634704</v>
+        <v>1.045360451230604</v>
       </c>
       <c r="M5">
-        <v>1.064401925266407</v>
+        <v>1.042270469481836</v>
       </c>
       <c r="N5">
-        <v>1.061347066318985</v>
+        <v>1.048499981175805</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055559214770333</v>
+        <v>1.029055992385242</v>
       </c>
       <c r="D6">
-        <v>1.053346875694152</v>
+        <v>1.038221883078039</v>
       </c>
       <c r="E6">
-        <v>1.059143202647344</v>
+        <v>1.03617240927137</v>
       </c>
       <c r="F6">
-        <v>1.062102662180752</v>
+        <v>1.033090948074556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046767641205399</v>
+        <v>1.052246509913968</v>
       </c>
       <c r="J6">
-        <v>1.059888328889722</v>
+        <v>1.047235557804421</v>
       </c>
       <c r="K6">
-        <v>1.05572836528136</v>
+        <v>1.047630428389079</v>
       </c>
       <c r="L6">
-        <v>1.061510989701333</v>
+        <v>1.045602900083601</v>
       </c>
       <c r="M6">
-        <v>1.064463514933828</v>
+        <v>1.042554635708153</v>
       </c>
       <c r="N6">
-        <v>1.061393491887636</v>
+        <v>1.0487227524161</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055129582062299</v>
+        <v>1.026965889420779</v>
       </c>
       <c r="D7">
-        <v>1.053021478440569</v>
+        <v>1.036647351069615</v>
       </c>
       <c r="E7">
-        <v>1.058728824230884</v>
+        <v>1.034228426562141</v>
       </c>
       <c r="F7">
-        <v>1.06161972177199</v>
+        <v>1.030854418223704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046627177265199</v>
+        <v>1.051449473885113</v>
       </c>
       <c r="J7">
-        <v>1.059569416300019</v>
+        <v>1.045698235682854</v>
       </c>
       <c r="K7">
-        <v>1.055462467463625</v>
+        <v>1.046319853883126</v>
       </c>
       <c r="L7">
-        <v>1.06115596234425</v>
+        <v>1.043927707664601</v>
       </c>
       <c r="M7">
-        <v>1.064039905140606</v>
+        <v>1.040591309057162</v>
       </c>
       <c r="N7">
-        <v>1.061074126405476</v>
+        <v>1.047183247120787</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053331357679377</v>
+        <v>1.01797373407252</v>
       </c>
       <c r="D8">
-        <v>1.05165910095111</v>
+        <v>1.029878023551593</v>
       </c>
       <c r="E8">
-        <v>1.056995065331307</v>
+        <v>1.025875466592173</v>
       </c>
       <c r="F8">
-        <v>1.059599403270089</v>
+        <v>1.02124183581057</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046036261655293</v>
+        <v>1.04799656968897</v>
       </c>
       <c r="J8">
-        <v>1.058233039514003</v>
+        <v>1.039073100059624</v>
       </c>
       <c r="K8">
-        <v>1.054347566206068</v>
+        <v>1.040667933456986</v>
       </c>
       <c r="L8">
-        <v>1.059669175414082</v>
+        <v>1.036715984137651</v>
       </c>
       <c r="M8">
-        <v>1.062266563754633</v>
+        <v>1.03214155957441</v>
       </c>
       <c r="N8">
-        <v>1.059735851811139</v>
+        <v>1.040548703045059</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050153124404812</v>
+        <v>1.001044198282687</v>
       </c>
       <c r="D9">
-        <v>1.04924963183797</v>
+        <v>1.017158507598021</v>
       </c>
       <c r="E9">
-        <v>1.053933139676605</v>
+        <v>1.010194589932409</v>
       </c>
       <c r="F9">
-        <v>1.056032471024391</v>
+        <v>1.003179891596722</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044980536220985</v>
+        <v>1.041406859756025</v>
       </c>
       <c r="J9">
-        <v>1.055865181601936</v>
+        <v>1.026560137023823</v>
       </c>
       <c r="K9">
-        <v>1.052369584882535</v>
+        <v>1.029979201557407</v>
       </c>
       <c r="L9">
-        <v>1.057038305979196</v>
+        <v>1.023124404372505</v>
       </c>
       <c r="M9">
-        <v>1.059131055855479</v>
+        <v>1.016221587099372</v>
       </c>
       <c r="N9">
-        <v>1.05736463126924</v>
+        <v>1.028017970166491</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.048027541124763</v>
+        <v>0.9888987018275953</v>
       </c>
       <c r="D10">
-        <v>1.047637194616571</v>
+        <v>1.008057803137025</v>
       </c>
       <c r="E10">
-        <v>1.051886967625165</v>
+        <v>0.998980465882737</v>
       </c>
       <c r="F10">
-        <v>1.053649479907797</v>
+        <v>0.9902448215362002</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044266871183366</v>
+        <v>1.036622424417322</v>
       </c>
       <c r="J10">
-        <v>1.054277617521316</v>
+        <v>1.017559799433957</v>
       </c>
       <c r="K10">
-        <v>1.051041723700307</v>
+        <v>1.022283079740992</v>
       </c>
       <c r="L10">
-        <v>1.055276747974103</v>
+        <v>1.013368152764521</v>
       </c>
       <c r="M10">
-        <v>1.057033181906251</v>
+        <v>1.004792471214153</v>
       </c>
       <c r="N10">
-        <v>1.055774812665529</v>
+        <v>1.019004851064894</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047105457492745</v>
+        <v>0.983401801950735</v>
       </c>
       <c r="D11">
-        <v>1.046937489766427</v>
+        <v>1.003946616953469</v>
       </c>
       <c r="E11">
-        <v>1.050999725170541</v>
+        <v>0.9939147557261572</v>
       </c>
       <c r="F11">
-        <v>1.052616330983343</v>
+        <v>0.9843955955807682</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043955481558028</v>
+        <v>1.034444464618687</v>
       </c>
       <c r="J11">
-        <v>1.053587994007704</v>
+        <v>1.01348176730953</v>
       </c>
       <c r="K11">
-        <v>1.050464514246199</v>
+        <v>1.018794487683408</v>
       </c>
       <c r="L11">
-        <v>1.054512098648723</v>
+        <v>1.008952350563889</v>
       </c>
       <c r="M11">
-        <v>1.056122908666316</v>
+        <v>0.9996179124825347</v>
       </c>
       <c r="N11">
-        <v>1.055084209807427</v>
+        <v>1.014921027667093</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046762693478308</v>
+        <v>0.9813209356365351</v>
       </c>
       <c r="D12">
-        <v>1.046677357215547</v>
+        <v>1.002391647996509</v>
       </c>
       <c r="E12">
-        <v>1.050669972115305</v>
+        <v>0.9919986854920935</v>
       </c>
       <c r="F12">
-        <v>1.052232370376435</v>
+        <v>0.9821820698361067</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043839459267498</v>
+        <v>1.033618189242978</v>
       </c>
       <c r="J12">
-        <v>1.053331501857442</v>
+        <v>1.011937418594811</v>
       </c>
       <c r="K12">
-        <v>1.05024977275385</v>
+        <v>1.017473170799951</v>
       </c>
       <c r="L12">
-        <v>1.054227785504481</v>
+        <v>1.0072808004665</v>
       </c>
       <c r="M12">
-        <v>1.055784502947953</v>
+        <v>0.9976587842569193</v>
       </c>
       <c r="N12">
-        <v>1.054827353408891</v>
+        <v>1.01337448580006</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.046836229449225</v>
+        <v>0.9817691150862684</v>
       </c>
       <c r="D13">
-        <v>1.046733167054408</v>
+        <v>1.002726495900613</v>
       </c>
       <c r="E13">
-        <v>1.050740714035804</v>
+        <v>0.9924112981992761</v>
       </c>
       <c r="F13">
-        <v>1.052314740550762</v>
+        <v>0.9826587900982243</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043864362698658</v>
+        <v>1.033796233271922</v>
       </c>
       <c r="J13">
-        <v>1.053386535548028</v>
+        <v>1.012270067699653</v>
       </c>
       <c r="K13">
-        <v>1.050295850994623</v>
+        <v>1.017757787276127</v>
       </c>
       <c r="L13">
-        <v>1.05428878477451</v>
+        <v>1.007640816300592</v>
       </c>
       <c r="M13">
-        <v>1.055857105350243</v>
+        <v>0.9980807565223075</v>
       </c>
       <c r="N13">
-        <v>1.054882465253631</v>
+        <v>1.013707607304786</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047077129878696</v>
+        <v>0.9832306148438821</v>
       </c>
       <c r="D14">
-        <v>1.046915991866374</v>
+        <v>1.003818665874934</v>
       </c>
       <c r="E14">
-        <v>1.050972471625316</v>
+        <v>0.9937570934278728</v>
       </c>
       <c r="F14">
-        <v>1.052584596869797</v>
+        <v>0.9842134807156986</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043945898443774</v>
+        <v>1.034376525252295</v>
       </c>
       <c r="J14">
-        <v>1.053566799155495</v>
+        <v>1.013354729599143</v>
       </c>
       <c r="K14">
-        <v>1.05044677061154</v>
+        <v>1.018685800120583</v>
       </c>
       <c r="L14">
-        <v>1.054488603149074</v>
+        <v>1.008814834859591</v>
       </c>
       <c r="M14">
-        <v>1.05609494189618</v>
+        <v>0.9994567462264105</v>
       </c>
       <c r="N14">
-        <v>1.055062984856097</v>
+        <v>1.014793809548585</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.047225521779239</v>
+        <v>0.9841258081912858</v>
       </c>
       <c r="D15">
-        <v>1.047028605525424</v>
+        <v>1.004487819117171</v>
       </c>
       <c r="E15">
-        <v>1.051115239544269</v>
+        <v>0.9945816255761197</v>
       </c>
       <c r="F15">
-        <v>1.052750837099667</v>
+        <v>0.9851658476657678</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043996087749703</v>
+        <v>1.034731729690808</v>
       </c>
       <c r="J15">
-        <v>1.053677820934207</v>
+        <v>1.014019027557927</v>
       </c>
       <c r="K15">
-        <v>1.050539711964019</v>
+        <v>1.019254135141164</v>
       </c>
       <c r="L15">
-        <v>1.054611679473819</v>
+        <v>1.009533952650767</v>
       </c>
       <c r="M15">
-        <v>1.056241442234681</v>
+        <v>1.000299525671054</v>
       </c>
       <c r="N15">
-        <v>1.055174164298469</v>
+        <v>1.015459050886667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048088700542333</v>
+        <v>0.9892582266279526</v>
       </c>
       <c r="D16">
-        <v>1.047683599564339</v>
+        <v>1.008326868755663</v>
       </c>
       <c r="E16">
-        <v>1.051945824428081</v>
+        <v>0.9993119981506027</v>
       </c>
       <c r="F16">
-        <v>1.053718018562603</v>
+        <v>0.9906274909608483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044287486979019</v>
+        <v>1.036764620673087</v>
       </c>
       <c r="J16">
-        <v>1.054323338825084</v>
+        <v>1.017826435598234</v>
       </c>
       <c r="K16">
-        <v>1.051079983710697</v>
+        <v>1.022511148214766</v>
       </c>
       <c r="L16">
-        <v>1.055327455094748</v>
+        <v>1.013656971496076</v>
       </c>
       <c r="M16">
-        <v>1.057093553515552</v>
+        <v>1.005130874165402</v>
       </c>
       <c r="N16">
-        <v>1.055820598898793</v>
+        <v>1.019271865883108</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048629691918417</v>
+        <v>0.992411756129167</v>
       </c>
       <c r="D17">
-        <v>1.04809405300613</v>
+        <v>1.010687832127049</v>
       </c>
       <c r="E17">
-        <v>1.052466493166995</v>
+        <v>1.002221097326202</v>
       </c>
       <c r="F17">
-        <v>1.054324352730323</v>
+        <v>0.9939845936089462</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04446963824579</v>
+        <v>1.038010468238842</v>
       </c>
       <c r="J17">
-        <v>1.054727663157948</v>
+        <v>1.020164695257356</v>
       </c>
       <c r="K17">
-        <v>1.05141828013013</v>
+        <v>1.024511024588801</v>
       </c>
       <c r="L17">
-        <v>1.055775934256188</v>
+        <v>1.016190294416006</v>
       </c>
       <c r="M17">
-        <v>1.057627551973973</v>
+        <v>1.008098923218103</v>
       </c>
       <c r="N17">
-        <v>1.056225497418586</v>
+        <v>1.021613446139148</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.048945080245639</v>
+        <v>0.9942284575378809</v>
       </c>
       <c r="D18">
-        <v>1.048333318262514</v>
+        <v>1.012048656993363</v>
       </c>
       <c r="E18">
-        <v>1.052770071537661</v>
+        <v>1.0038978856699</v>
       </c>
       <c r="F18">
-        <v>1.054677892498401</v>
+        <v>0.9959190454933096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044575655698956</v>
+        <v>1.038726994102974</v>
       </c>
       <c r="J18">
-        <v>1.054963286991314</v>
+        <v>1.021511294074987</v>
       </c>
       <c r="K18">
-        <v>1.051615387171634</v>
+        <v>1.025662606127148</v>
       </c>
       <c r="L18">
-        <v>1.056037343242229</v>
+        <v>1.01764967402963</v>
       </c>
       <c r="M18">
-        <v>1.057938843343358</v>
+        <v>1.009808595314142</v>
       </c>
       <c r="N18">
-        <v>1.056461455864822</v>
+        <v>1.022961957281557</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049052592110279</v>
+        <v>0.9948441503404505</v>
       </c>
       <c r="D19">
-        <v>1.048414877017644</v>
+        <v>1.012509965349059</v>
       </c>
       <c r="E19">
-        <v>1.052873563928854</v>
+        <v>1.0044663103168</v>
       </c>
       <c r="F19">
-        <v>1.054798419516155</v>
+        <v>0.9965747264284022</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044611766264305</v>
+        <v>1.038969625682516</v>
       </c>
       <c r="J19">
-        <v>1.055043592872667</v>
+        <v>1.021967589020148</v>
       </c>
       <c r="K19">
-        <v>1.051682559145101</v>
+        <v>1.026052794197268</v>
       </c>
       <c r="L19">
-        <v>1.056126446359134</v>
+        <v>1.01814426008599</v>
       </c>
       <c r="M19">
-        <v>1.058044955191279</v>
+        <v>1.01038798518672</v>
       </c>
       <c r="N19">
-        <v>1.056541875789738</v>
+        <v>1.023418900217878</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048571665553249</v>
+        <v>0.9920757829271808</v>
       </c>
       <c r="D20">
-        <v>1.048050030297025</v>
+        <v>1.010436223070432</v>
       </c>
       <c r="E20">
-        <v>1.052410642681322</v>
+        <v>1.00191107115538</v>
       </c>
       <c r="F20">
-        <v>1.054259311770371</v>
+        <v>0.9936268828691751</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044450118771993</v>
+        <v>1.037877860066346</v>
       </c>
       <c r="J20">
-        <v>1.05468430491967</v>
+        <v>1.019915624796215</v>
       </c>
       <c r="K20">
-        <v>1.051382006450997</v>
+        <v>1.024298013202046</v>
       </c>
       <c r="L20">
-        <v>1.055727835482094</v>
+        <v>1.015920399712319</v>
       </c>
       <c r="M20">
-        <v>1.057570277758355</v>
+        <v>1.007782729261522</v>
       </c>
       <c r="N20">
-        <v>1.056182077606637</v>
+        <v>1.021364021969383</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047006197969611</v>
+        <v>0.9828013472207076</v>
       </c>
       <c r="D21">
-        <v>1.046862160928056</v>
+        <v>1.003497838671572</v>
       </c>
       <c r="E21">
-        <v>1.050904230131462</v>
+        <v>0.9933617661529556</v>
       </c>
       <c r="F21">
-        <v>1.052505136581399</v>
+        <v>0.9837568220611327</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043921898111075</v>
+        <v>1.034206132286672</v>
       </c>
       <c r="J21">
-        <v>1.053513725312153</v>
+        <v>1.013036161403749</v>
       </c>
       <c r="K21">
-        <v>1.050402337970592</v>
+        <v>1.018413245066074</v>
       </c>
       <c r="L21">
-        <v>1.054429769621436</v>
+        <v>1.008470002802142</v>
       </c>
       <c r="M21">
-        <v>1.056024913017211</v>
+        <v>0.9990526022282632</v>
       </c>
       <c r="N21">
-        <v>1.055009835641809</v>
+        <v>1.014474788949814</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046020412292895</v>
+        <v>0.976742089495552</v>
       </c>
       <c r="D22">
-        <v>1.046113961563152</v>
+        <v>0.9989726844169809</v>
       </c>
       <c r="E22">
-        <v>1.049955976666059</v>
+        <v>0.9877854985926365</v>
       </c>
       <c r="F22">
-        <v>1.051401037931785</v>
+        <v>0.9773125807692039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043587710412182</v>
+        <v>1.031796788989267</v>
       </c>
       <c r="J22">
-        <v>1.052775793133155</v>
+        <v>1.008538158884333</v>
       </c>
       <c r="K22">
-        <v>1.049784411141785</v>
+        <v>1.01456452013748</v>
       </c>
       <c r="L22">
-        <v>1.053611953141277</v>
+        <v>1.003602873671887</v>
       </c>
       <c r="M22">
-        <v>1.055051601083099</v>
+        <v>0.9933472876029853</v>
       </c>
       <c r="N22">
-        <v>1.054270855514475</v>
+        <v>1.009970398750893</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046543141758715</v>
+        <v>0.9799770673652088</v>
       </c>
       <c r="D23">
-        <v>1.046510724551212</v>
+        <v>1.001387814868804</v>
       </c>
       <c r="E23">
-        <v>1.05045877117742</v>
+        <v>0.990761703801715</v>
       </c>
       <c r="F23">
-        <v>1.0519864559897</v>
+        <v>0.9807527230675738</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043765067123148</v>
+        <v>1.033084066336088</v>
       </c>
       <c r="J23">
-        <v>1.053167170756925</v>
+        <v>1.010939888444717</v>
       </c>
       <c r="K23">
-        <v>1.050112174005571</v>
+        <v>1.016619653588259</v>
       </c>
       <c r="L23">
-        <v>1.054045653338899</v>
+        <v>1.006201308922079</v>
       </c>
       <c r="M23">
-        <v>1.055567733815294</v>
+        <v>0.9963934563443377</v>
       </c>
       <c r="N23">
-        <v>1.054662788939362</v>
+        <v>1.012375539042734</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048597885672452</v>
+        <v>0.9922276646543862</v>
       </c>
       <c r="D24">
-        <v>1.048069922713004</v>
+        <v>1.010549964530457</v>
       </c>
       <c r="E24">
-        <v>1.052435879478717</v>
+        <v>1.002051220351796</v>
       </c>
       <c r="F24">
-        <v>1.054288701365192</v>
+        <v>0.9937885898979824</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04445893948723</v>
+        <v>1.037937811278583</v>
       </c>
       <c r="J24">
-        <v>1.05470389729501</v>
+        <v>1.020028222202073</v>
       </c>
       <c r="K24">
-        <v>1.051398397630911</v>
+        <v>1.024394309811534</v>
       </c>
       <c r="L24">
-        <v>1.055749569807602</v>
+        <v>1.0160424097635</v>
       </c>
       <c r="M24">
-        <v>1.057596158069446</v>
+        <v>1.007925670033119</v>
       </c>
       <c r="N24">
-        <v>1.056201697805397</v>
+        <v>1.021476779276472</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.050975939629518</v>
+        <v>1.005561892882204</v>
       </c>
       <c r="D25">
-        <v>1.049873600808072</v>
+        <v>1.020549142584789</v>
       </c>
       <c r="E25">
-        <v>1.054725560169048</v>
+        <v>1.014373386055454</v>
       </c>
       <c r="F25">
-        <v>1.056955465596627</v>
+        <v>1.007995772846941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045255192887139</v>
+        <v>1.043175299298277</v>
       </c>
       <c r="J25">
-        <v>1.056478895571912</v>
+        <v>1.029903516069347</v>
       </c>
       <c r="K25">
-        <v>1.052882547840169</v>
+        <v>1.032836619951494</v>
       </c>
       <c r="L25">
-        <v>1.057719775971471</v>
+        <v>1.026752597256294</v>
       </c>
       <c r="M25">
-        <v>1.05994296053391</v>
+        <v>1.020471219947586</v>
       </c>
       <c r="N25">
-        <v>1.057979216783447</v>
+        <v>1.03136609719375</v>
       </c>
     </row>
   </sheetData>
